--- a/DosingApp/DosingApp/Resources/Reports/Отчетность v.4.xlsx
+++ b/DosingApp/DosingApp/Resources/Reports/Отчетность v.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yushanov\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yushanov\source\repos\DosingApp\DosingApp\DosingApp\Resources\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -884,7 +884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
